--- a/artfynd/A 29266-2023 artfynd.xlsx
+++ b/artfynd/A 29266-2023 artfynd.xlsx
@@ -5049,7 +5049,7 @@
         <v>130819233</v>
       </c>
       <c r="B39" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>130819210</v>
       </c>
       <c r="B40" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>130819189</v>
       </c>
       <c r="B41" t="n">
-        <v>92223</v>
+        <v>92227</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>130819196</v>
       </c>
       <c r="B42" t="n">
-        <v>92102</v>
+        <v>92106</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>

--- a/artfynd/A 29266-2023 artfynd.xlsx
+++ b/artfynd/A 29266-2023 artfynd.xlsx
@@ -5049,7 +5049,7 @@
         <v>130819233</v>
       </c>
       <c r="B39" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5165,7 +5165,7 @@
         <v>130819210</v>
       </c>
       <c r="B40" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>130819189</v>
       </c>
       <c r="B41" t="n">
-        <v>92227</v>
+        <v>92228</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         <v>130819196</v>
       </c>
       <c r="B42" t="n">
-        <v>92106</v>
+        <v>92107</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
